--- a/outputs/BAGHA5.xlsx
+++ b/outputs/BAGHA5.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: Abi needs to understand what the conference is about to ensure that their paper aligns with the conference's themes and objectives. This information is crucial for deciding if this is the right venue for submission. Given Abi's comprehensive information processing style, they would consider gathering this background information as an essential step toward the overall goal of submitting a paper.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to submit a paper to ASE 2019, and understanding what the conference is about is a crucial step in this process. Abi's comprehensive information processing style means they would want to gather all relevant information about the conference to ensure it aligns with their goals and the content of their paper.</t>
         </is>
       </c>
     </row>
@@ -434,18 +434,17 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: None of the Above
-Why: The "Accept &amp; Close" button for cookies is a common feature on many websites and is located prominently at the bottom of the screen. It is not a complex action and does not require technical knowledge or extensive information processing. Abi is likely familiar with this type of prompt and will understand that accepting cookies is necessary to proceed with viewing the website content without interruption.</t>
+Facets: 6. None of the Above
+Why: The cookie consent banner is a common feature on many websites, and the action to "Accept &amp; Close" is clearly labeled and straightforward. Abi will likely recognize this as a standard procedure to proceed with viewing the website content without any hindrance. This action does not require any specific technical knowledge or confidence in computing tasks.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Answer: YES
-Facets: None of the Above
-Why: After accepting the cookie prompt, Abi will remain on the same homepage, which contains comprehensive information about the ASE 2019 conference. The page includes details about the conference's keynotes, distinguished papers, tracks, and general information about the event. Abi will recognize that they are still on the correct page and can access the necessary information to understand what the conference is about, thus making progress toward their goal.
-</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After accepting the cookie, Abi will be able to view the full content of the ASE 2019 homepage without any obstructions. The page provides comprehensive information about the conference, including keynotes, distinguished papers, and details about the event. This aligns with Abi's motivation to understand what the conference is about and their comprehensive information processing style. Abi will know they are making progress toward their goal as the page contains relevant and detailed information about the conference.</t>
         </is>
       </c>
     </row>
@@ -453,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style
-Why: The page clearly presents a significant amount of information at a glance, but it does not display everything initially. Given Abi's comprehensive information processing style, they are likely to scroll down to ensure they gather all relevant details about the conference. The page layout and the structure make it evident that more information is available as they scroll down, guiding Abi to take this action naturally.</t>
+Facets: 2. Information Processing Style
+Why: The page layout and content suggest that there is more information available below the visible section. Abi, with a comprehensive information processing style, will likely scroll down to gather all relevant details about the conference. The presence of keynotes, distinguished papers, and other sections at the top of the page indicates that further scrolling will provide additional information, which aligns with Abi's goal of understanding what the conference is about.</t>
         </is>
       </c>
     </row>
@@ -462,17 +461,17 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Information Processing Style, Motivations
-Why: After scrolling down, Abi will find a detailed description of the ASE 2019 conference, including keynotes, distinguished papers, and general information about the event. This comprehensive information aligns with Abi's information processing style, ensuring that she knows she is making progress toward her goal of understanding what the conference is about. The detailed content provides the necessary context and specifics that Abi needs to feel confident that she is on the right track.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After scrolling down, Abi will find detailed information about the ASE 2019 conference, including keynotes, distinguished papers, and various tracks and deadlines. This comprehensive information aligns with Abi's motivation to understand what the conference is about and their information processing style. Abi will know they are making progress toward their goal as the page provides all the necessary details about the conference, helping them to make an informed decision about submitting their paper.</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: The page clearly displays a box labeled "ASE 2019 Tracks" on the right-hand side, which includes an option for "Research Papers." Given Abi's goal of submitting a paper, this option is directly relevant to their interests. The labeling is straightforward and intuitive, making it easy for Abi to understand that clicking on "Research Papers" will provide more specific information about the conference's tracks, thus aligning with their motivation and comprehensive information processing style.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The action of clicking on "Research Papers" in the ASE 2019 tracks box might not be immediately clear to Abi. The page does not provide explicit instructions or context about what will happen after clicking the link. Given Abi's low confidence in doing unfamiliar computing tasks and preference for process-oriented learning, Abi might hesitate to click on the link without more information about what to expect. This uncertainty can prevent Abi from taking the action confidently.</t>
         </is>
       </c>
     </row>
@@ -480,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Information Processing Style, Computer Self-Efficacy
-Why: Upon clicking the link, Abi lands on a page that primarily lists individuals with their photos and names, which could be overwhelming and not immediately relevant to the information Abi seeks about the research paper tracks. The crucial details about the conference's research paper tracks are not prominently displayed or easily accessible on this page. Given Abi's comprehensive information processing style, they would expect to find detailed and clear information about the research paper tracks rather than a list of people, which could cause confusion and hinder their progress. Additionally, Abi's low computer self-efficacy might make it harder for them to navigate through this unexpected content, further complicating their task.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking on "Research Papers," Abi lands on a page with a long list of names and no immediate context or detailed information about the research papers. This page does not provide a clear indication that Abi is making progress toward understanding what the conference is about. The lack of comprehensive information and the overwhelming amount of data without clear organization can be confusing for Abi, who prefers a comprehensive information processing style. Additionally, Abi's low computer self-efficacy might make them doubt whether they are on the right track, as the page does not clearly connect to their goal of finding out about the conference.</t>
         </is>
       </c>
     </row>
@@ -489,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: Computer Self-Efficacy, Information Processing Style, Attitude Towards Risk
-Why: The page Abi lands on contains a long list of individuals, which could be overwhelming and confusing. There is no clear indication or labeling of a "call for papers" link. Abi might not feel confident navigating through this page to find the necessary link, given their low computer self-efficacy and risk-averse nature. Additionally, with their comprehensive information processing style, Abi would likely prefer clear and direct guidance to the relevant information rather than having to search through an extensive list of names and icons.</t>
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page Abi is currently on is cluttered with a long list of names and lacks clear instructions or context about what to do next. Abi, with low computer self-efficacy, might feel uncertain about what action to take next. Additionally, the page does not provide a clear, process-oriented guide or indication that clicking on "call for papers" is the next logical step. This lack of guidance and overwhelming information can make it difficult for Abi to confidently take the action.</t>
         </is>
       </c>
     </row>
@@ -498,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: Motivations, Information Processing Style
-Why: After clicking on the "Call for Papers" link, Abi lands on a page that provides detailed information about the conference's call for papers, including topics of interest, submission guidelines, and important dates. This page is comprehensive and aligns well with Abi's information processing style, ensuring that they can gather all the necessary information in one place. The clear and detailed content helps Abi understand that they are making progress toward their goal of submitting a paper to the conference.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Call for Papers," Abi lands on a page that provides detailed information about the types of papers being solicited, submission guidelines, and important dates. This page aligns with Abi's motivation to understand what the conference is about and their comprehensive information processing style. The clear and detailed information will help Abi know that they are making progress toward their goal and provide them with the necessary details to prepare their paper for submission.</t>
         </is>
       </c>
     </row>
